--- a/planilha/janeiro/Escala ASO1 - Carlos Prates - 1° Turno - Janeiro.xlsx
+++ b/planilha/janeiro/Escala ASO1 - Carlos Prates - 1° Turno - Janeiro.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Escala ASO1 - Carlos Prates - 1° Turno - Janeiro</t>
   </si>
@@ -115,10 +115,7 @@
     <t>Suellen Lima</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20/12/19</t>
+    <t>30/12/19</t>
   </si>
 </sst>
 </file>
@@ -2023,24 +2020,26 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s"/>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="5" t="s"/>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F13" s="5" t="s"/>
+      <c r="G13" s="5" t="s"/>
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="s"/>
-      <c r="J13" s="5" t="s"/>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K13" s="5" t="s"/>
       <c r="L13" s="5" t="s">
         <v>8</v>
@@ -2051,17 +2050,23 @@
       <c r="N13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="5" t="s"/>
+      <c r="O13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P13" s="5" t="s"/>
-      <c r="Q13" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q13" s="5" t="s"/>
       <c r="R13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="5" t="s"/>
-      <c r="T13" s="5" t="s"/>
-      <c r="U13" s="5" t="s"/>
+      <c r="S13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="V13" s="5" t="s"/>
       <c r="W13" s="5" t="s">
         <v>15</v>
@@ -2069,19 +2074,21 @@
       <c r="X13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="5" t="s"/>
+      <c r="Y13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Z13" s="5" t="s"/>
-      <c r="AA13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="AA13" s="5" t="s"/>
+      <c r="AB13" s="5" t="s"/>
       <c r="AC13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD13" s="5" t="s"/>
-      <c r="AE13" s="5" t="s"/>
+      <c r="AD13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="AF13" s="5" t="s"/>
       <c r="AG13" s="5" t="s">
         <v>15</v>
@@ -2529,7 +2536,7 @@
     <row r="29" spans="1:48"/>
     <row r="30" spans="1:48">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
